--- a/modelInputs/e_Hydrogen_LCA.xlsx
+++ b/modelInputs/e_Hydrogen_LCA.xlsx
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>6.580650275893528e-07</v>
+        <v>6.581430745814308e-07</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>8.076706546271069e-05</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
